--- a/biology/Botanique/Theaceae/Theaceae.xlsx
+++ b/biology/Botanique/Theaceae/Theaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Théacées (Theaceae) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales. Elle comprend 500 espèces réparties en 10 à 20 genres.
 Ce sont des arbres et des arbustes des régions tropicales et subtropicales. C'est la famille du théier et du camélia.
@@ -513,12 +525,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette famille est dérivé du nom de genre Thea L., qui était le genre type de la famille, lui-même issu du chinois minnan 荼 (tú) "thé", en Chine ; vers la fin de la dynastie Zhou environ 700 ou 650 avant. J.-C., le terme correspond à l’idéogramme 茶 (chá), simple réduction, une barre en moins, du caractère 荼 (tú), malais tēh "thé", néerlandais thee "thé"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette famille est dérivé du nom de genre Thea L., qui était le genre type de la famille, lui-même issu du chinois minnan 荼 (tú) "thé", en Chine ; vers la fin de la dynastie Zhou environ 700 ou 650 avant. J.-C., le terme correspond à l’idéogramme 茶 (chá), simple réduction, une barre en moins, du caractère 荼 (tú), malais tēh "thé", néerlandais thee "thé".
 Cependant le genre Thea L. qui a été intégré au genre Camellia L. n'est plus reconnu. 
-En toute logique, la famille devrait donc s'appeler Camelliaceae, nom qui existe, mais qui, lui non plus, n'est pas reconnu[2]. Aussi, le nom Theaceae est le nom valide du fait d'une proposition de conservation.
-Au niveau générique, le choix de Camellia au profit de Thea est déjà en soi contestable, mais est un cas connu et faisant le sujet d'une explication par le Code international de nomenclature lui-même. On sait que le nom de genre Thea fut publié le 24 mai 1753 alors que le nom Camellia ne le fut que le 16 août 1753. La règle d'antériorité dicte donc la priorité de Thea sur Camellia. Cependant, Thea et Camellia sont officiellement considérés comme ayant été publiés le même jour, le premier mai 1753, ce qui rend caduque la règle d'antériorité. Le premier à faire le rapprochement entre Thea et Camellia est Robert Sweet en 1818. Celui-ci privilégie Camellia à Thea pour une raison inconnue, mais pour le code de nomenclature il devient référence pour préférer Camellia à Thea[3].
+En toute logique, la famille devrait donc s'appeler Camelliaceae, nom qui existe, mais qui, lui non plus, n'est pas reconnu. Aussi, le nom Theaceae est le nom valide du fait d'une proposition de conservation.
+Au niveau générique, le choix de Camellia au profit de Thea est déjà en soi contestable, mais est un cas connu et faisant le sujet d'une explication par le Code international de nomenclature lui-même. On sait que le nom de genre Thea fut publié le 24 mai 1753 alors que le nom Camellia ne le fut que le 16 août 1753. La règle d'antériorité dicte donc la priorité de Thea sur Camellia. Cependant, Thea et Camellia sont officiellement considérés comme ayant été publiés le même jour, le premier mai 1753, ce qui rend caduque la règle d'antériorité. Le premier à faire le rapprochement entre Thea et Camellia est Robert Sweet en 1818. Celui-ci privilégie Camellia à Thea pour une raison inconnue, mais pour le code de nomenclature il devient référence pour préférer Camellia à Thea.
 Ainsi, si la règle d'antériorité avait été appliquée, le genre Camellia aurait dû s'appeler Thea, la famille des Theaceae aurait alors été Camellideae[réf. souhaitée].
 </t>
         </is>
@@ -548,9 +562,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 février 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 février 2018) :
 Apterosperma
 Camellia
 Franklinia
@@ -559,7 +575,7 @@
 Pyrenaria (en)
 Schima
 Stewartia
-Selon Angiosperm Phylogeny Website                        (23 février 2018)[5] :
+Selon Angiosperm Phylogeny Website                        (23 février 2018) :
 Apterosperma
 Camellia
 Dankia (en)
@@ -569,7 +585,7 @@
 Pyrenaria
 Schima
 Stewartia
-Selon NCBI  (12 nov. 2015)[6] :
+Selon NCBI  (12 nov. 2015) :
 Apterosperma
 Camellia
 Franklinia
@@ -583,7 +599,7 @@
 Sinopyrenaria
 Stewartia
 Tutcheria  nom alternatif du Pyrenaria
-Selon DELTA Angio           (12 nov. 2015)[7] :
+Selon DELTA Angio           (12 nov. 2015) :
 Adinandra (en) dans les Pentaphylacaceae
 Anneslea (en) dans les Pentaphylacaceae
 Apterosperma
@@ -602,7 +618,7 @@
 Symplococarpon (es) dans les Pentaphylacaceae
 Ternstroemia
 Visnea
-Selon ITIS      (12 nov. 2015)[8] :
+Selon ITIS      (12 nov. 2015) :
 Camellia L.
 Franklinia Bartr. ex Marsh.
 Gordonia Ellis
@@ -636,9 +652,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 Jun 2010)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 Jun 2010) :
 genre Apterosperma
 Apterosperma oblata
 genre Camellia
